--- a/SchedulingData/static2/pso/scheduling1_11.xlsx
+++ b/SchedulingData/static2/pso/scheduling1_11.xlsx
@@ -481,26 +481,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>64.56</v>
+        <v>49.42</v>
       </c>
       <c r="E3" t="n">
-        <v>26.204</v>
+        <v>26.248</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.96</v>
+        <v>49.96</v>
       </c>
       <c r="E4" t="n">
         <v>26.204</v>
@@ -519,64 +519,64 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64.56</v>
+        <v>54.46</v>
       </c>
       <c r="D5" t="n">
-        <v>111.12</v>
+        <v>96.56</v>
       </c>
       <c r="E5" t="n">
-        <v>23.168</v>
+        <v>22.664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>96.56</v>
       </c>
       <c r="D6" t="n">
-        <v>42.1</v>
+        <v>154.28</v>
       </c>
       <c r="E6" t="n">
-        <v>27.48</v>
+        <v>19.492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>49.42</v>
+        <v>61.96</v>
       </c>
       <c r="E7" t="n">
-        <v>26.248</v>
+        <v>26.964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -584,32 +584,32 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44.96</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>112.04</v>
+        <v>57.68</v>
       </c>
       <c r="E8" t="n">
-        <v>22.116</v>
+        <v>25.912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>49.96</v>
       </c>
       <c r="D9" t="n">
-        <v>58.3</v>
+        <v>100.48</v>
       </c>
       <c r="E9" t="n">
-        <v>26.34</v>
+        <v>22.772</v>
       </c>
     </row>
     <row r="10">
@@ -618,131 +618,131 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>111.12</v>
+        <v>100.48</v>
       </c>
       <c r="D10" t="n">
-        <v>178.78</v>
+        <v>132.58</v>
       </c>
       <c r="E10" t="n">
-        <v>20.032</v>
+        <v>20.692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.42</v>
+        <v>132.58</v>
       </c>
       <c r="D11" t="n">
-        <v>86.62</v>
+        <v>169.18</v>
       </c>
       <c r="E11" t="n">
-        <v>24.168</v>
+        <v>18.172</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>58.3</v>
+        <v>49.42</v>
       </c>
       <c r="D12" t="n">
-        <v>111.12</v>
+        <v>109.02</v>
       </c>
       <c r="E12" t="n">
-        <v>23.168</v>
+        <v>23.888</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>86.62</v>
+        <v>61.96</v>
       </c>
       <c r="D13" t="n">
-        <v>133.72</v>
+        <v>104.62</v>
       </c>
       <c r="E13" t="n">
-        <v>21.088</v>
+        <v>23.828</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>42.1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>87.72</v>
+        <v>58.3</v>
       </c>
       <c r="E14" t="n">
-        <v>24.048</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>112.04</v>
+        <v>109.02</v>
       </c>
       <c r="D15" t="n">
-        <v>158.6</v>
+        <v>160.68</v>
       </c>
       <c r="E15" t="n">
-        <v>19.08</v>
+        <v>20.852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>133.72</v>
+        <v>57.68</v>
       </c>
       <c r="D16" t="n">
-        <v>183.42</v>
+        <v>159.18</v>
       </c>
       <c r="E16" t="n">
-        <v>18.728</v>
+        <v>21.352</v>
       </c>
     </row>
     <row r="17">
@@ -751,17 +751,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>111.12</v>
+        <v>58.3</v>
       </c>
       <c r="D17" t="n">
-        <v>168.02</v>
+        <v>107.56</v>
       </c>
       <c r="E17" t="n">
-        <v>18.608</v>
+        <v>22.544</v>
       </c>
     </row>
   </sheetData>
